--- a/Datos/Database by set/Set with text box/Xlsx sets/Battle the Horde (TBTH).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Battle the Horde (TBTH).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,427 +444,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Altar of Mogis</t>
+          <t>('Altar of Mogis', ['Artifact', 'At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library. The Horde casts that card.', 'Hero’s Reward — When Altar of Mogis is put into a graveyard from anywhere, the Horde sacrifices two Minotaurs.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Artifact</t>
+          <t>('Consuming Rage', ['Sorcery', 'Whenever a Minotaur attacks this turn, it gets +2/+0 until end of turn. Destroy that creature at end of combat.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library. The Horde casts that card.</t>
+          <t>('Descend on the Prey', ['Sorcery', 'Whenever a Minotaur attacks this turn, it gains first strike until end of turn and must be blocked this turn if able.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hero’s Reward — When Altar of Mogis is put into a graveyard from anywhere, the Horde sacrifices two Minotaurs.</t>
+          <t>('Intervention of Keranos', ['Sorcery', 'At the beginning of combat this turn, Intervention of Keranos deals 3 damage to each creature.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Consuming Rage</t>
+          <t>('Massacre Totem', ['Artifact', 'At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library. The Horde casts that card.', 'Hero’s Reward — When Massacre Totem is put into a graveyard from anywhere, put the top seven cards of the Horde’s library into its graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Minotaur Goreseeker', ['Token Creature — Minotaur', 'Haste', 'Minotaur Goreseeker attacks each turn if able.', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Whenever a Minotaur attacks this turn, it gets +2/+0 until end of turn. Destroy that creature at end of combat.</t>
+          <t>('Minotaur Younghorn', ['Token Creature — Minotaur', 'Haste', 'Minotaur Younghorn attacks each turn if able.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Descend on the Prey</t>
+          <t>("Mogis's Chosen", ['Token Creature — Minotaur', 'Mogis’s Chosen enters the battlefield tapped.', 'Mogis’s Chosen attacks each turn if able.', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Phoberos Reaver', ['Token Creature — Minotaur', 'Haste', 'Phoberos Reaver attacks each turn if able.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Whenever a Minotaur attacks this turn, it gains first strike until end of turn and must be blocked this turn if able.</t>
+          <t>('Plundered Statue', ['Artifact', 'At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library.', 'Hero’s Reward — When Plundered Statue is put into a graveyard from anywhere, each player draws a card.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intervention of Keranos</t>
+          <t>('Reckless Minotaur', ['Token Creature — Minotaur', 'Haste', 'Reckless Minotaur attacks each turn if able.', 'At the beginning of the end step, destroy Reckless Minotaur.', '4/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Refreshing Elixir', ['Artifact', 'At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library. The Horde casts that card.', 'Hero’s Reward — When Refreshing Elixir is put into a graveyard from anywhere, each player gains 5 life.'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>At the beginning of combat this turn, Intervention of Keranos deals 3 damage to each creature.</t>
+          <t>('Touch of the Horned God', ['Sorcery', 'Whenever a Minotaur attacks this turn, it gains deathtouch until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Massacre Totem</t>
+          <t>('Unquenchable Fury', ['Sorcery', 'Each Minotaur can’t be blocked this turn except by two or more creatures.'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library. The Horde casts that card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Hero’s Reward — When Massacre Totem is put into a graveyard from anywhere, put the top seven cards of the Horde’s library into its graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Minotaur Goreseeker</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Token Creature — Minotaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Minotaur Goreseeker attacks each turn if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Minotaur Younghorn</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Token Creature — Minotaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Minotaur Younghorn attacks each turn if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mogis's Chosen</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Token Creature — Minotaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Mogis’s Chosen enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Mogis’s Chosen attacks each turn if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>5/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Phoberos Reaver</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Token Creature — Minotaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Phoberos Reaver attacks each turn if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Plundered Statue</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Hero’s Reward — When Plundered Statue is put into a graveyard from anywhere, each player draws a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Reckless Minotaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Token Creature — Minotaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Reckless Minotaur attacks each turn if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>At the beginning of the end step, destroy Reckless Minotaur.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>4/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Refreshing Elixir</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library. The Horde casts that card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Hero’s Reward — When Refreshing Elixir is put into a graveyard from anywhere, each player gains 5 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Touch of the Horned God</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Whenever a Minotaur attacks this turn, it gains deathtouch until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Unquenchable Fury</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Each Minotaur can’t be blocked this turn except by two or more creatures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Vitality Salve</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library. The Horde casts that card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Hero’s Reward — When Vitality Salve is put into a graveyard from anywhere, each player returns a creature card from their graveyard to the battlefield.</t>
+          <t>('Vitality Salve', ['Artifact', 'At the beginning of the Horde’s precombat main phase, reveal an additional card from the top of the Horde’s library. The Horde casts that card.', 'Hero’s Reward — When Vitality Salve is put into a graveyard from anywhere, each player returns a creature card from their graveyard to the battlefield.'])</t>
         </is>
       </c>
     </row>
